--- a/model_summary.xlsx
+++ b/model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3541792_ad_unsw_edu_au/Documents/Documents/GitHub/ShoreModel_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB724975-7A87-4AD7-A65C-F7B652A5C550}"/>
+  <xr:revisionPtr revIDLastSave="491" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33BC3E31-A1C0-4A1A-9F36-9AAA86E46F52}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3300" windowWidth="25500" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="102">
   <si>
     <t>Model Name</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>MUSCLEDCOCOONED_corrected_JAAA</t>
+  </si>
+  <si>
+    <t>ShorEOF-ML_corrected_JO</t>
+  </si>
+  <si>
+    <t>SARIMAX_AG</t>
   </si>
 </sst>
 </file>
@@ -354,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +370,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -388,6 +400,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,17 +706,17 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1458,46 +1471,44 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
+      <c r="A25" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
       <c r="I25" t="s">
         <v>16</v>
       </c>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1505,31 +1516,25 @@
       <c r="G26" t="s">
         <v>13</v>
       </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
       <c r="I26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1537,22 +1542,28 @@
       <c r="G27" t="s">
         <v>13</v>
       </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
       <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
@@ -1563,37 +1574,25 @@
       <c r="G28" t="s">
         <v>13</v>
       </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
       <c r="I28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1601,32 +1600,37 @@
       <c r="G29" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="1"/>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
       <c r="J29" t="s">
         <v>16</v>
       </c>
       <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -1634,25 +1638,32 @@
       <c r="G30" t="s">
         <v>13</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>24</v>
+      <c r="A31" t="s">
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
         <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -1660,25 +1671,29 @@
       <c r="G31" t="s">
         <v>13</v>
       </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -1689,34 +1704,25 @@
       <c r="G32" t="s">
         <v>13</v>
       </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
       <c r="I32" t="s">
         <v>16</v>
       </c>
-      <c r="J32" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>96</v>
+      <c r="A33" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -1724,25 +1730,28 @@
       <c r="G33" t="s">
         <v>13</v>
       </c>
-      <c r="J33" t="s">
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1750,25 +1759,34 @@
       <c r="G34" t="s">
         <v>13</v>
       </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
       <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -1776,31 +1794,25 @@
       <c r="G35" t="s">
         <v>13</v>
       </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="J35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1808,22 +1820,22 @@
       <c r="G36" t="s">
         <v>13</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -1834,28 +1846,31 @@
       <c r="G37" t="s">
         <v>13</v>
       </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
       <c r="I37" t="s">
         <v>16</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -1869,16 +1884,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1889,13 +1904,68 @@
       <c r="G39" t="s">
         <v>13</v>
       </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
       <c r="I39" t="s">
         <v>16</v>
       </c>
       <c r="J39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
         <v>16</v>
       </c>
     </row>

--- a/model_summary.xlsx
+++ b/model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3541792_ad_unsw_edu_au/Documents/Documents/GitHub/ShoreModel_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="491" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33BC3E31-A1C0-4A1A-9F36-9AAA86E46F52}"/>
+  <xr:revisionPtr revIDLastSave="493" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC2DAEA2-457D-485D-B03E-83152A1634CE}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3017" yWindow="3017" windowWidth="16457" windowHeight="9506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="102">
   <si>
     <t>Model Name</t>
   </si>
@@ -686,22 +686,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.15234375" customWidth="1"/>
+    <col min="9" max="9" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -718,7 +718,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -759,7 +759,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -782,7 +782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -817,7 +817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -852,7 +852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -884,7 +884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -916,7 +916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -948,7 +948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -980,7 +980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>99</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>101</v>
       </c>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -1704,11 +1704,17 @@
       <c r="G32" t="s">
         <v>13</v>
       </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
       <c r="I32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -1737,7 +1743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>68</v>
       </c>

--- a/model_summary.xlsx
+++ b/model_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3541792_ad_unsw_edu_au/Documents/Documents/GitHub/ShoreModel_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="493" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC2DAEA2-457D-485D-B03E-83152A1634CE}"/>
+  <xr:revisionPtr revIDLastSave="506" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C48F4B-B159-43CF-9FA8-06F8BC23CEC0}"/>
   <bookViews>
-    <workbookView xWindow="3017" yWindow="3017" windowWidth="16457" windowHeight="9506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="107">
   <si>
     <t>Model Name</t>
   </si>
@@ -331,6 +331,21 @@
   </si>
   <si>
     <t>SARIMAX_AG</t>
+  </si>
+  <si>
+    <t>Submission Type</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>Resubmission</t>
+  </si>
+  <si>
+    <t>ShoreForLogSpiral_BD</t>
+  </si>
+  <si>
+    <t>Bixuan Dong</t>
   </si>
 </sst>
 </file>
@@ -684,24 +699,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.15234375" customWidth="1"/>
-    <col min="9" max="9" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.53515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -717,8 +733,9 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -755,11 +772,14 @@
       <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -781,8 +801,11 @@
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -816,8 +839,11 @@
       <c r="K4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -851,8 +877,11 @@
       <c r="K5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -883,8 +912,11 @@
       <c r="K6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -915,8 +947,11 @@
       <c r="K7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -947,8 +982,11 @@
       <c r="K8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -979,8 +1017,11 @@
       <c r="K9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1014,8 +1055,11 @@
       <c r="K10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1049,8 +1093,11 @@
       <c r="K11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1079,8 +1126,11 @@
       <c r="J12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1117,8 +1167,11 @@
       <c r="L13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1155,8 +1208,11 @@
       <c r="L14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1193,8 +1249,11 @@
       <c r="L15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1219,8 +1278,11 @@
       <c r="J16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1248,8 +1310,11 @@
       <c r="K17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1280,8 +1345,11 @@
       <c r="J18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1309,8 +1377,11 @@
       <c r="J19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
@@ -1339,10 +1410,13 @@
         <v>16</v>
       </c>
       <c r="M20" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
@@ -1367,8 +1441,11 @@
       <c r="J21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -1402,8 +1479,11 @@
       <c r="K22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>99</v>
       </c>
@@ -1437,8 +1517,11 @@
       <c r="K23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1469,8 +1552,11 @@
       <c r="K24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>101</v>
       </c>
@@ -1493,8 +1579,11 @@
         <v>16</v>
       </c>
       <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1519,8 +1608,11 @@
       <c r="I26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1551,8 +1643,11 @@
       <c r="K27" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1577,8 +1672,11 @@
       <c r="I28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1713,11 @@
       <c r="L29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1648,8 +1749,11 @@
       <c r="K30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -1681,8 +1785,11 @@
       <c r="K31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -1713,8 +1820,11 @@
       <c r="K32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -1742,8 +1852,11 @@
       <c r="I33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1890,11 @@
       <c r="K34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -1803,8 +1919,11 @@
       <c r="J35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -1829,8 +1948,11 @@
       <c r="J36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -1861,8 +1983,11 @@
       <c r="K37" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1887,8 +2012,11 @@
       <c r="I38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1916,8 +2044,11 @@
       <c r="J39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1942,8 +2073,11 @@
       <c r="I40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -1973,6 +2107,35 @@
       </c>
       <c r="J41" t="s">
         <v>16</v>
+      </c>
+      <c r="M41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/model_summary.xlsx
+++ b/model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3541792_ad_unsw_edu_au/Documents/Documents/GitHub/ShoreModel_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="506" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C48F4B-B159-43CF-9FA8-06F8BC23CEC0}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9623E270-8E8C-4BD6-868B-F046A4141438}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,9 +228,6 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>PBM</t>
-  </si>
-  <si>
     <t>wNOISE_JAAA</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>Bixuan Dong</t>
+  </si>
+  <si>
+    <t>OLM</t>
   </si>
 </sst>
 </file>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>3</v>
@@ -773,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -802,18 +802,18 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>66</v>
@@ -840,18 +840,18 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
       </c>
       <c r="D5" t="s">
         <v>66</v>
@@ -878,18 +878,18 @@
         <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>66</v>
@@ -913,18 +913,18 @@
         <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
         <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
       </c>
       <c r="D7" t="s">
         <v>66</v>
@@ -948,18 +948,18 @@
         <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>66</v>
@@ -983,18 +983,18 @@
         <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>66</v>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1056,18 +1056,18 @@
         <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
         <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
       </c>
       <c r="D11" t="s">
         <v>66</v>
@@ -1094,7 +1094,7 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1168,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1279,12 +1279,12 @@
         <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -1311,7 +1311,7 @@
         <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>16</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1378,24 +1378,24 @@
         <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1410,27 +1410,27 @@
         <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -1442,18 +1442,18 @@
         <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>
@@ -1480,18 +1480,18 @@
         <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
@@ -1518,7 +1518,7 @@
         <v>16</v>
       </c>
       <c r="M23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1553,12 +1553,12 @@
         <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="J25" s="1"/>
       <c r="M25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>16</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
         <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
         <v>60</v>
@@ -1673,7 +1673,7 @@
         <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
         <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1750,12 +1750,12 @@
         <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -1786,21 +1786,21 @@
         <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
         <v>74</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" t="s">
-        <v>76</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -1821,7 +1821,7 @@
         <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1891,12 +1891,12 @@
         <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
@@ -1908,7 +1908,7 @@
         <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -1920,15 +1920,15 @@
         <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
         <v>97</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
       </c>
       <c r="C36" t="s">
         <v>65</v>
@@ -1937,7 +1937,7 @@
         <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1949,12 +1949,12 @@
         <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
@@ -1984,7 +1984,7 @@
         <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2013,15 +2013,15 @@
         <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
         <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
       </c>
       <c r="C39" t="s">
         <v>57</v>
@@ -2045,7 +2045,7 @@
         <v>16</v>
       </c>
       <c r="M39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2074,18 +2074,18 @@
         <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
         <v>68</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>69</v>
-      </c>
-      <c r="C41" t="s">
-        <v>70</v>
       </c>
       <c r="D41" t="s">
         <v>66</v>
@@ -2109,15 +2109,15 @@
         <v>16</v>
       </c>
       <c r="M41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
         <v>105</v>
-      </c>
-      <c r="B42" t="s">
-        <v>106</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -2135,7 +2135,7 @@
         <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/model_summary.xlsx
+++ b/model_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3541792_ad_unsw_edu_au/Documents/Documents/GitHub/ShoreModel_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="510" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9623E270-8E8C-4BD6-868B-F046A4141438}"/>
+  <xr:revisionPtr revIDLastSave="512" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85F10A96-FF2B-4A25-8846-99D1D2072D22}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>Joshua Simmons</t>
   </si>
   <si>
-    <t>linear-but-a-smidge-fancy_JS</t>
-  </si>
-  <si>
     <t>Institution</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>OLM</t>
+  </si>
+  <si>
+    <t>Bayesian-Hierarchical_JS</t>
   </si>
 </sst>
 </file>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,10 +743,10 @@
         <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>3</v>
@@ -773,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -802,21 +802,21 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -840,21 +840,21 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -878,21 +878,21 @@
         <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -913,21 +913,21 @@
         <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -948,21 +948,21 @@
         <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -983,21 +983,21 @@
         <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1029,10 +1029,10 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -1056,21 +1056,21 @@
         <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -1094,7 +1094,7 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1105,10 +1105,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1138,10 +1138,10 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -1168,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1179,10 +1179,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -1209,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1220,10 +1220,10 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -1250,7 +1250,7 @@
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1261,10 +1261,10 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -1279,21 +1279,21 @@
         <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -1311,7 +1311,7 @@
         <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1322,10 +1322,10 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
         <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -1346,7 +1346,7 @@
         <v>16</v>
       </c>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1357,10 +1357,10 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
@@ -1378,24 +1378,24 @@
         <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
         <v>80</v>
       </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1410,27 +1410,27 @@
         <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -1442,21 +1442,21 @@
         <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -1480,21 +1480,21 @@
         <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -1518,7 +1518,7 @@
         <v>16</v>
       </c>
       <c r="M23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1529,10 +1529,10 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
         <v>59</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -1553,21 +1553,21 @@
         <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="J25" s="1"/>
       <c r="M25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1591,10 +1591,10 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -1609,7 +1609,7 @@
         <v>16</v>
       </c>
       <c r="M26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1620,10 +1620,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -1644,7 +1644,7 @@
         <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1655,10 +1655,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
@@ -1673,7 +1673,7 @@
         <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1684,10 +1684,10 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
@@ -1714,7 +1714,7 @@
         <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1725,10 +1725,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -1750,21 +1750,21 @@
         <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -1786,21 +1786,21 @@
         <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
         <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>75</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -1821,7 +1821,7 @@
         <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1832,10 +1832,10 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
         <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>58</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
@@ -1853,7 +1853,7 @@
         <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1864,10 +1864,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
@@ -1891,24 +1891,24 @@
         <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
         <v>64</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>65</v>
       </c>
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -1920,24 +1920,24 @@
         <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
       <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
         <v>65</v>
       </c>
-      <c r="D36" t="s">
-        <v>66</v>
-      </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1949,21 +1949,21 @@
         <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -1984,7 +1984,7 @@
         <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -1995,10 +1995,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -2013,21 +2013,21 @@
         <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
       <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
         <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>58</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -2045,21 +2045,21 @@
         <v>16</v>
       </c>
       <c r="M39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -2074,21 +2074,21 @@
         <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
         <v>67</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>68</v>
       </c>
-      <c r="C41" t="s">
-        <v>69</v>
-      </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -2109,21 +2109,21 @@
         <v>16</v>
       </c>
       <c r="M41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
         <v>104</v>
       </c>
-      <c r="B42" t="s">
-        <v>105</v>
-      </c>
       <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
         <v>57</v>
-      </c>
-      <c r="D42" t="s">
-        <v>58</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -2135,7 +2135,7 @@
         <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/model_summary.xlsx
+++ b/model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3541792_ad_unsw_edu_au/Documents/Documents/GitHub/ShoreModel_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="512" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85F10A96-FF2B-4A25-8846-99D1D2072D22}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E450B43-E0F3-4DA3-B4B6-76F6DB6FC880}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="109">
   <si>
     <t>Model Name</t>
   </si>
@@ -321,9 +321,6 @@
     <t>MUSCLEDCOCOONED_corrected_JAAA</t>
   </si>
   <si>
-    <t>ShorEOF-ML_corrected_JO</t>
-  </si>
-  <si>
     <t>SARIMAX_AG</t>
   </si>
   <si>
@@ -342,10 +339,19 @@
     <t>Bixuan Dong</t>
   </si>
   <si>
-    <t>OLM</t>
-  </si>
-  <si>
     <t>Bayesian-Hierarchical_JS</t>
+  </si>
+  <si>
+    <t>SARIMAX_KW</t>
+  </si>
+  <si>
+    <t>Katie Wilson</t>
+  </si>
+  <si>
+    <t>SVARX_KW</t>
+  </si>
+  <si>
+    <t>linear_regression_KW</t>
   </si>
 </sst>
 </file>
@@ -699,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>84</v>
@@ -781,16 +787,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -798,83 +804,62 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
         <v>16</v>
       </c>
       <c r="M5" t="s">
@@ -883,7 +868,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -909,16 +894,19 @@
       <c r="I6" t="s">
         <v>16</v>
       </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
       <c r="K6" t="s">
         <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -944,16 +932,19 @@
       <c r="I7" t="s">
         <v>16</v>
       </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -976,19 +967,19 @@
       <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>16</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -1011,28 +1002,28 @@
       <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -1046,9 +1037,6 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -1056,12 +1044,12 @@
         <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -1084,9 +1072,6 @@
       <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
       <c r="J11" t="s">
         <v>16</v>
       </c>
@@ -1094,24 +1079,24 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1122,26 +1107,31 @@
       <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
       <c r="J12" t="s">
         <v>16</v>
       </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
       <c r="M12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -1164,28 +1154,25 @@
       <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="L13" t="s">
-        <v>16</v>
-      </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1196,25 +1183,17 @@
       <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
+      <c r="I14" s="1"/>
       <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
       <c r="M14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1250,32 +1229,44 @@
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
       <c r="I16" t="s">
         <v>16</v>
       </c>
       <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
         <v>16</v>
       </c>
       <c r="M16" t="s">
@@ -1284,16 +1275,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -1301,34 +1292,43 @@
       <c r="F17" t="s">
         <v>13</v>
       </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
       </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
       <c r="K17" t="s">
         <v>16</v>
       </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1345,13 +1345,19 @@
       <c r="J18" t="s">
         <v>16</v>
       </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
       <c r="M18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -1363,14 +1369,11 @@
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
       <c r="I19" t="s">
         <v>16</v>
       </c>
@@ -1378,59 +1381,56 @@
         <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>79</v>
+      <c r="A20" t="s">
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>13</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>101</v>
-      </c>
-      <c r="N20" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>76</v>
+      <c r="A21" t="s">
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -1438,25 +1438,31 @@
       <c r="G21" t="s">
         <v>13</v>
       </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
       <c r="J21" t="s">
         <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>75</v>
+      <c r="A22" t="s">
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -1467,34 +1473,28 @@
       <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
       <c r="I22" t="s">
         <v>16</v>
       </c>
       <c r="J22" t="s">
         <v>16</v>
       </c>
-      <c r="K22" t="s">
-        <v>16</v>
-      </c>
       <c r="M22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -1505,69 +1505,60 @@
       <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
       <c r="I23" t="s">
         <v>16</v>
       </c>
       <c r="J23" t="s">
         <v>16</v>
       </c>
-      <c r="K23" t="s">
-        <v>16</v>
-      </c>
       <c r="M23" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="N23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
+      <c r="A24" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s">
         <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>99</v>
+      <c r="A25" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -1575,26 +1566,31 @@
       <c r="F25" t="s">
         <v>13</v>
       </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
       <c r="I25" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="1"/>
       <c r="M25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -1605,28 +1601,37 @@
       <c r="G26" t="s">
         <v>13</v>
       </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
       <c r="I26" t="s">
         <v>16</v>
       </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
       <c r="M26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
+      <c r="A27" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1640,77 +1645,80 @@
       <c r="I27" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
         <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
         <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>13</v>
       </c>
       <c r="I28" t="s">
         <v>16</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
       <c r="M28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
       <c r="H29" t="s">
         <v>13</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" t="s">
         <v>16</v>
       </c>
       <c r="M29" t="s">
@@ -1718,17 +1726,17 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
+      <c r="A30" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -1736,32 +1744,22 @@
       <c r="F30" t="s">
         <v>13</v>
       </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="I30" t="s">
         <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>98</v>
+      <c r="A31" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
         <v>57</v>
@@ -1775,14 +1773,10 @@
       <c r="G31" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
         <v>16</v>
       </c>
       <c r="M31" t="s">
@@ -1791,16 +1785,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -1811,31 +1805,25 @@
       <c r="G32" t="s">
         <v>13</v>
       </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
       <c r="I32" t="s">
         <v>16</v>
       </c>
-      <c r="K32" t="s">
-        <v>16</v>
-      </c>
       <c r="M32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>24</v>
+      <c r="A33" t="s">
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
@@ -1844,9 +1832,6 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s">
         <v>13</v>
       </c>
       <c r="I33" t="s">
@@ -1858,19 +1843,19 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1884,37 +1869,40 @@
       <c r="I34" t="s">
         <v>16</v>
       </c>
-      <c r="J34" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="K34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
@@ -1925,19 +1913,19 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1945,28 +1933,28 @@
       <c r="G36" t="s">
         <v>13</v>
       </c>
-      <c r="J36" t="s">
+      <c r="I36" t="s">
         <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -1980,25 +1968,31 @@
       <c r="I37" t="s">
         <v>16</v>
       </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
       <c r="K37" t="s">
         <v>16</v>
       </c>
+      <c r="L37" t="s">
+        <v>16</v>
+      </c>
       <c r="M37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -2009,7 +2003,19 @@
       <c r="G38" t="s">
         <v>13</v>
       </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
       <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" t="s">
         <v>16</v>
       </c>
       <c r="M38" t="s">
@@ -2018,13 +2024,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
         <v>57</v>
@@ -2038,60 +2044,70 @@
       <c r="G39" t="s">
         <v>13</v>
       </c>
-      <c r="I39" t="s">
-        <v>16</v>
-      </c>
+      <c r="H39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="1"/>
       <c r="J39" t="s">
         <v>16</v>
       </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
       <c r="M39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
         <v>57</v>
       </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-      <c r="M40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" t="s">
-        <v>65</v>
-      </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -2105,19 +2121,16 @@
       <c r="I41" t="s">
         <v>16</v>
       </c>
-      <c r="J41" t="s">
-        <v>16</v>
-      </c>
       <c r="M41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
         <v>103</v>
-      </c>
-      <c r="B42" t="s">
-        <v>104</v>
       </c>
       <c r="C42" t="s">
         <v>56</v>
@@ -2135,7 +2148,269 @@
         <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/model_summary.xlsx
+++ b/model_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3541792_ad_unsw_edu_au/Documents/Documents/GitHub/ShoreModel_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E450B43-E0F3-4DA3-B4B6-76F6DB6FC880}"/>
+  <xr:revisionPtr revIDLastSave="598" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F14AF123-7942-489F-8756-BD12AC2F9BD5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25800" yWindow="2850" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="113">
   <si>
     <t>Model Name</t>
   </si>
@@ -352,6 +352,18 @@
   </si>
   <si>
     <t>linear_regression_KW</t>
+  </si>
+  <si>
+    <t>RandomForestReg_DP</t>
+  </si>
+  <si>
+    <t>Danial Pais</t>
+  </si>
+  <si>
+    <t>Lisbon Uni</t>
+  </si>
+  <si>
+    <t>Portugal</t>
   </si>
 </sst>
 </file>
@@ -705,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,9 +1686,6 @@
       <c r="F28" t="s">
         <v>13</v>
       </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
       <c r="I28" t="s">
         <v>16</v>
       </c>
@@ -1726,17 +1735,17 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>98</v>
+      <c r="A30" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -1744,25 +1753,31 @@
       <c r="F30" t="s">
         <v>13</v>
       </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="I30" t="s">
         <v>16</v>
       </c>
+      <c r="J30" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>105</v>
+      <c r="A31" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -1770,46 +1785,43 @@
       <c r="F31" t="s">
         <v>13</v>
       </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
       <c r="I31" t="s">
         <v>16</v>
       </c>
       <c r="M31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1838,24 +1850,24 @@
         <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1863,31 +1875,25 @@
       <c r="G34" t="s">
         <v>13</v>
       </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
       <c r="I34" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -1904,28 +1910,28 @@
       <c r="I35" t="s">
         <v>16</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1933,28 +1939,34 @@
       <c r="G36" t="s">
         <v>13</v>
       </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
       <c r="I36" t="s">
         <v>16</v>
       </c>
+      <c r="K36" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -1971,28 +1983,22 @@
       <c r="J37" t="s">
         <v>16</v>
       </c>
-      <c r="K37" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" t="s">
-        <v>16</v>
-      </c>
       <c r="M37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -2003,40 +2009,28 @@
       <c r="G38" t="s">
         <v>13</v>
       </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
       <c r="I38" t="s">
         <v>16</v>
       </c>
-      <c r="J38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" t="s">
-        <v>16</v>
-      </c>
       <c r="M38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -2044,14 +2038,19 @@
       <c r="G39" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="1"/>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
       <c r="J39" t="s">
         <v>16</v>
       </c>
       <c r="K39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" t="s">
         <v>16</v>
       </c>
       <c r="M39" t="s">
@@ -2060,16 +2059,16 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -2086,28 +2085,34 @@
       <c r="I40" t="s">
         <v>16</v>
       </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
       <c r="K40" t="s">
         <v>16</v>
       </c>
+      <c r="L40" t="s">
+        <v>16</v>
+      </c>
       <c r="M40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>24</v>
+      <c r="A41" t="s">
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -2115,10 +2120,12 @@
       <c r="G41" t="s">
         <v>13</v>
       </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
         <v>16</v>
       </c>
       <c r="M41" t="s">
@@ -2127,43 +2134,52 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
         <v>56</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>57</v>
       </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" t="s">
-        <v>51</v>
-      </c>
       <c r="E43" t="s">
         <v>19</v>
       </c>
@@ -2177,12 +2193,6 @@
         <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" t="s">
         <v>16</v>
       </c>
       <c r="M43" t="s">
@@ -2191,45 +2201,42 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="I44" t="s">
         <v>16</v>
       </c>
       <c r="M44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s">
         <v>19</v>
@@ -2240,7 +2247,16 @@
       <c r="G45" t="s">
         <v>13</v>
       </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
       <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s">
         <v>16</v>
       </c>
       <c r="M45" t="s">
@@ -2249,19 +2265,19 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -2269,13 +2285,7 @@
       <c r="G46" t="s">
         <v>13</v>
       </c>
-      <c r="H46" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="J46" t="s">
         <v>16</v>
       </c>
       <c r="M46" t="s">
@@ -2284,19 +2294,19 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2304,34 +2314,28 @@
       <c r="G47" t="s">
         <v>13</v>
       </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="J47" t="s">
         <v>16</v>
       </c>
       <c r="M47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2339,7 +2343,13 @@
       <c r="G48" t="s">
         <v>13</v>
       </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
       <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
         <v>16</v>
       </c>
       <c r="M48" t="s">
@@ -2348,16 +2358,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -2368,48 +2378,112 @@
       <c r="G49" t="s">
         <v>13</v>
       </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
       <c r="I49" t="s">
         <v>16</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>16</v>
       </c>
       <c r="M49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>66</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>67</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>68</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>65</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E52" t="s">
         <v>7</v>
       </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" t="s">
         <v>100</v>
       </c>
     </row>

--- a/model_summary.xlsx
+++ b/model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3541792_ad_unsw_edu_au/Documents/Documents/GitHub/ShoreModel_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="598" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F14AF123-7942-489F-8756-BD12AC2F9BD5}"/>
+  <xr:revisionPtr revIDLastSave="601" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A82B4EC-7032-46ED-9FC8-60CF567D2473}"/>
   <bookViews>
-    <workbookView xWindow="-25800" yWindow="2850" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="2715" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="113">
   <si>
     <t>Model Name</t>
   </si>
@@ -717,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,84 +1430,84 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
-      </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
@@ -1525,17 +1525,14 @@
       </c>
       <c r="M23" t="s">
         <v>100</v>
-      </c>
-      <c r="N23" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
         <v>78</v>
@@ -1552,28 +1549,34 @@
       <c r="G24" t="s">
         <v>13</v>
       </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
       <c r="J24" t="s">
         <v>16</v>
       </c>
       <c r="M24" t="s">
         <v>100</v>
+      </c>
+      <c r="N24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1581,31 +1584,28 @@
       <c r="G25" t="s">
         <v>13</v>
       </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1619,19 +1619,13 @@
       <c r="I26" t="s">
         <v>16</v>
       </c>
-      <c r="J26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" t="s">
-        <v>16</v>
-      </c>
       <c r="M26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -1668,28 +1662,34 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
+      <c r="A28" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
       <c r="I28" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" t="s">
         <v>16</v>
       </c>
       <c r="K28" t="s">
@@ -1718,9 +1718,6 @@
       <c r="F29" t="s">
         <v>13</v>
       </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
       <c r="I29" t="s">
         <v>16</v>
       </c>
@@ -1731,21 +1728,21 @@
         <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>109</v>
+      <c r="A30" t="s">
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -1753,13 +1750,16 @@
       <c r="F30" t="s">
         <v>13</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>13</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
         <v>16</v>
       </c>
       <c r="M30" t="s">
@@ -1767,17 +1767,17 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>98</v>
+      <c r="A31" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -1785,25 +1785,31 @@
       <c r="F31" t="s">
         <v>13</v>
       </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="I31" t="s">
         <v>16</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>105</v>
+      <c r="A32" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -1811,46 +1817,43 @@
       <c r="F32" t="s">
         <v>13</v>
       </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
       <c r="I32" t="s">
         <v>16</v>
       </c>
       <c r="M32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1879,24 +1882,24 @@
         <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -1904,17 +1907,11 @@
       <c r="G35" t="s">
         <v>13</v>
       </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
       <c r="I35" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1949,21 +1946,21 @@
         <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -1980,7 +1977,7 @@
       <c r="I37" t="s">
         <v>16</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M37" t="s">
@@ -1989,19 +1986,19 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -2009,25 +2006,31 @@
       <c r="G38" t="s">
         <v>13</v>
       </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
       <c r="I38" t="s">
         <v>16</v>
       </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
       <c r="M38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
         <v>19</v>
@@ -2038,19 +2041,7 @@
       <c r="G39" t="s">
         <v>13</v>
       </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
       <c r="I39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" t="s">
         <v>16</v>
       </c>
       <c r="M39" t="s">
@@ -2095,24 +2086,24 @@
         <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -2120,91 +2111,100 @@
       <c r="G41" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
       <c r="J41" t="s">
         <v>16</v>
       </c>
       <c r="K41" t="s">
         <v>16</v>
       </c>
+      <c r="L41" t="s">
+        <v>16</v>
+      </c>
       <c r="M41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>72</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>73</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>83</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>74</v>
       </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>25</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" t="s">
-        <v>16</v>
-      </c>
-      <c r="M43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" t="s">
-        <v>103</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
@@ -2213,30 +2213,36 @@
         <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
       <c r="I44" t="s">
         <v>16</v>
       </c>
       <c r="M44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
         <v>19</v>
@@ -2244,37 +2250,25 @@
       <c r="F45" t="s">
         <v>13</v>
       </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
       <c r="I45" t="s">
         <v>16</v>
       </c>
-      <c r="J45" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" t="s">
-        <v>16</v>
-      </c>
       <c r="M45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -2285,7 +2279,16 @@
       <c r="G46" t="s">
         <v>13</v>
       </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
       <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
         <v>16</v>
       </c>
       <c r="M46" t="s">
@@ -2294,10 +2297,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
         <v>64</v>
@@ -2323,19 +2326,19 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2343,13 +2346,7 @@
       <c r="G48" t="s">
         <v>13</v>
       </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="J48" t="s">
         <v>16</v>
       </c>
       <c r="M48" t="s">
@@ -2388,24 +2385,24 @@
         <v>16</v>
       </c>
       <c r="M49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2413,28 +2410,34 @@
       <c r="G50" t="s">
         <v>13</v>
       </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
       <c r="I50" t="s">
         <v>16</v>
       </c>
+      <c r="K50" t="s">
+        <v>16</v>
+      </c>
       <c r="M50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2443,9 +2446,6 @@
         <v>13</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" t="s">
         <v>16</v>
       </c>
       <c r="M51" t="s">
@@ -2454,16 +2454,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -2474,9 +2474,6 @@
       <c r="G52" t="s">
         <v>13</v>
       </c>
-      <c r="H52" t="s">
-        <v>13</v>
-      </c>
       <c r="I52" t="s">
         <v>16</v>
       </c>
@@ -2484,6 +2481,41 @@
         <v>16</v>
       </c>
       <c r="M52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" t="s">
         <v>100</v>
       </c>
     </row>

--- a/model_summary.xlsx
+++ b/model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3541792_ad_unsw_edu_au/Documents/Documents/GitHub/ShoreModel_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="601" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A82B4EC-7032-46ED-9FC8-60CF567D2473}"/>
+  <xr:revisionPtr revIDLastSave="602" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC5262CA-0E51-45A2-A517-BFAF14C676BC}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="2715" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2715" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="113">
   <si>
     <t>Model Name</t>
   </si>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,9 +1971,6 @@
       <c r="G37" t="s">
         <v>13</v>
       </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
       <c r="I37" t="s">
         <v>16</v>
       </c>

--- a/model_summary.xlsx
+++ b/model_summary.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3541792_ad_unsw_edu_au/Documents/Documents/GitHub/ShoreModel_Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="602" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC5262CA-0E51-45A2-A517-BFAF14C676BC}"/>
+  <xr:revisionPtr revIDLastSave="603" documentId="11_F25DC773A252ABDACC1048DD819946C45ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A5BE4D2-6635-4755-8971-18009D510C28}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2715" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="113">
   <si>
     <t>Model Name</t>
   </si>
@@ -717,25 +728,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.15234375" customWidth="1"/>
+    <col min="9" max="9" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.53515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -753,7 +764,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -797,7 +808,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -826,7 +837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -852,7 +863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -878,7 +889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -916,7 +927,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -954,7 +965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -989,7 +1000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1024,7 +1035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -1059,7 +1070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1094,7 +1105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1132,7 +1143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1170,7 +1181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1203,7 +1214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1244,7 +1255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1285,7 +1296,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1326,7 +1337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1396,7 +1407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -1428,7 +1439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -1460,7 +1471,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1495,7 +1506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1527,7 +1538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>79</v>
       </c>
@@ -1562,7 +1573,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
@@ -1591,7 +1602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>108</v>
       </c>
@@ -1623,7 +1634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -1661,7 +1672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>97</v>
       </c>
@@ -1699,7 +1710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1731,7 +1742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1766,7 +1777,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>109</v>
       </c>
@@ -1798,7 +1809,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>98</v>
       </c>
@@ -1824,7 +1835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>105</v>
       </c>
@@ -1856,7 +1867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1885,7 +1896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1914,7 +1925,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1949,7 +1960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1981,7 +1992,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -2016,7 +2027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -2045,7 +2056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -2086,7 +2097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -2127,7 +2138,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -2161,7 +2172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -2196,7 +2207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -2228,7 +2239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -2254,7 +2265,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -2292,7 +2303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2321,7 +2332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2350,7 +2361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -2385,57 +2396,51 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" t="s">
         <v>7</v>
       </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" t="s">
-        <v>19</v>
-      </c>
       <c r="F51" t="s">
         <v>13</v>
       </c>
@@ -2445,22 +2450,25 @@
       <c r="I51" t="s">
         <v>16</v>
       </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
       <c r="M51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -2471,6 +2479,9 @@
       <c r="G52" t="s">
         <v>13</v>
       </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
       <c r="I52" t="s">
         <v>16</v>
       </c>
@@ -2478,41 +2489,6 @@
         <v>16</v>
       </c>
       <c r="M52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" t="s">
         <v>100</v>
       </c>
     </row>
